--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N2">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O2">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P2">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q2">
-        <v>0.3609707777342223</v>
+        <v>0.3592147405666667</v>
       </c>
       <c r="R2">
-        <v>3.248736999608</v>
+        <v>3.2329326651</v>
       </c>
       <c r="S2">
-        <v>0.002415771132117962</v>
+        <v>0.00250432124527946</v>
       </c>
       <c r="T2">
-        <v>0.002415771132117961</v>
+        <v>0.00250432124527946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P3">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q3">
-        <v>79.59615710822511</v>
+        <v>72.83145754454088</v>
       </c>
       <c r="R3">
-        <v>716.3654139740261</v>
+        <v>655.483117900868</v>
       </c>
       <c r="S3">
-        <v>0.5326915928667048</v>
+        <v>0.5077557957831421</v>
       </c>
       <c r="T3">
-        <v>0.5326915928667046</v>
+        <v>0.5077557957831421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N4">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q4">
-        <v>6.604117524685556</v>
+        <v>6.089198282305778</v>
       </c>
       <c r="R4">
-        <v>59.43705772217001</v>
+        <v>54.80278454075201</v>
       </c>
       <c r="S4">
-        <v>0.04419758455072623</v>
+        <v>0.04245178970395686</v>
       </c>
       <c r="T4">
-        <v>0.04419758455072623</v>
+        <v>0.04245178970395686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H5">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N5">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O5">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P5">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q5">
-        <v>0.04901949917733333</v>
+        <v>0.386664711856</v>
       </c>
       <c r="R5">
-        <v>0.441175492596</v>
+        <v>3.479982406704</v>
       </c>
       <c r="S5">
-        <v>0.0003280594949175441</v>
+        <v>0.002695692975108099</v>
       </c>
       <c r="T5">
-        <v>0.000328059494917544</v>
+        <v>0.002695692975108099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N6">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O6">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P6">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q6">
-        <v>0.1816136434111112</v>
+        <v>0.1975166335416667</v>
       </c>
       <c r="R6">
-        <v>1.6345227907</v>
+        <v>1.777649701875</v>
       </c>
       <c r="S6">
-        <v>0.001215436328960578</v>
+        <v>0.001377017827537265</v>
       </c>
       <c r="T6">
-        <v>0.001215436328960577</v>
+        <v>0.001377017827537265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.878373</v>
       </c>
       <c r="O7">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P7">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q7">
         <v>40.04686524678056</v>
@@ -883,10 +883,10 @@
         <v>360.4217872210251</v>
       </c>
       <c r="S7">
-        <v>0.2680107835937396</v>
+        <v>0.2791929286814536</v>
       </c>
       <c r="T7">
-        <v>0.2680107835937395</v>
+        <v>0.2791929286814536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N8">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q8">
-        <v>3.322700670402778</v>
+        <v>3.348186502011111</v>
       </c>
       <c r="R8">
-        <v>29.90430603362501</v>
+        <v>30.13367851810001</v>
       </c>
       <c r="S8">
-        <v>0.02223693676981828</v>
+        <v>0.02334240119689127</v>
       </c>
       <c r="T8">
-        <v>0.02223693676981828</v>
+        <v>0.02334240119689127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N9">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O9">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P9">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q9">
-        <v>0.02466296551666667</v>
+        <v>0.2126101843</v>
       </c>
       <c r="R9">
-        <v>0.22196668965</v>
+        <v>1.9134916587</v>
       </c>
       <c r="S9">
-        <v>0.0001650551341068724</v>
+        <v>0.001482244856281045</v>
       </c>
       <c r="T9">
-        <v>0.0001650551341068723</v>
+        <v>0.001482244856281045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N10">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O10">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P10">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q10">
-        <v>0.07174582259866666</v>
+        <v>0.07368774295</v>
       </c>
       <c r="R10">
-        <v>0.645712403388</v>
+        <v>0.66318968655</v>
       </c>
       <c r="S10">
-        <v>0.0004801537902093824</v>
+        <v>0.0005137255222190092</v>
       </c>
       <c r="T10">
-        <v>0.0004801537902093824</v>
+        <v>0.0005137255222190093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H11">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.878373</v>
       </c>
       <c r="O11">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P11">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q11">
-        <v>15.82037139756233</v>
+        <v>14.94032709723933</v>
       </c>
       <c r="R11">
-        <v>142.383342578061</v>
+        <v>134.462943875154</v>
       </c>
       <c r="S11">
-        <v>0.1058767049274981</v>
+        <v>0.1041588062394587</v>
       </c>
       <c r="T11">
-        <v>0.1058767049274981</v>
+        <v>0.1041588062394587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H12">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N12">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q12">
-        <v>1.312621058471666</v>
+        <v>1.249111540050667</v>
       </c>
       <c r="R12">
-        <v>11.813589526245</v>
+        <v>11.242003860456</v>
       </c>
       <c r="S12">
-        <v>0.008784622623387899</v>
+        <v>0.008708374724650452</v>
       </c>
       <c r="T12">
-        <v>0.008784622623387901</v>
+        <v>0.008708374724650454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H13">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N13">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O13">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P13">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q13">
-        <v>0.009743016633999999</v>
+        <v>0.079318710168</v>
       </c>
       <c r="R13">
-        <v>0.08768714970599999</v>
+        <v>0.713868391512</v>
       </c>
       <c r="S13">
-        <v>6.520444250889526E-05</v>
+        <v>0.0005529826830283454</v>
       </c>
       <c r="T13">
-        <v>6.520444250889526E-05</v>
+        <v>0.0005529826830283453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H14">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N14">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O14">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P14">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q14">
-        <v>0.008427212654222223</v>
+        <v>0.0163396611</v>
       </c>
       <c r="R14">
-        <v>0.07584491388800001</v>
+        <v>0.1470569499</v>
       </c>
       <c r="S14">
-        <v>5.639851841214332E-05</v>
+        <v>0.0001139144801486844</v>
       </c>
       <c r="T14">
-        <v>5.639851841214332E-05</v>
+        <v>0.0001139144801486844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H15">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>20.878373</v>
       </c>
       <c r="O15">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P15">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q15">
-        <v>1.858249431215111</v>
+        <v>3.312896714148</v>
       </c>
       <c r="R15">
-        <v>16.724244880936</v>
+        <v>29.816070427332</v>
       </c>
       <c r="S15">
-        <v>0.01243620151299159</v>
+        <v>0.02309637297057857</v>
       </c>
       <c r="T15">
-        <v>0.01243620151299159</v>
+        <v>0.02309637297057857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H16">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N16">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q16">
-        <v>0.1541795242355556</v>
+        <v>0.276980382672</v>
       </c>
       <c r="R16">
-        <v>1.38761571812</v>
+        <v>2.492823444048001</v>
       </c>
       <c r="S16">
-        <v>0.001031835447040468</v>
+        <v>0.001931011672173822</v>
       </c>
       <c r="T16">
-        <v>0.001031835447040468</v>
+        <v>0.001931011672173822</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H17">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N17">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O17">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P17">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q17">
-        <v>0.001144407717333333</v>
+        <v>0.017588282544</v>
       </c>
       <c r="R17">
-        <v>0.010299669456</v>
+        <v>0.158294542896</v>
       </c>
       <c r="S17">
-        <v>7.658866859694761E-06</v>
+        <v>0.0001226194380927485</v>
       </c>
       <c r="T17">
-        <v>7.658866859694761E-06</v>
+        <v>0.0001226194380927484</v>
       </c>
     </row>
   </sheetData>
